--- a/Aespa_Scraped.xlsx
+++ b/Aespa_Scraped.xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="11280" windowHeight="12200"/>
+    <workbookView windowWidth="22560" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$704</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$697</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="699">
   <si>
     <t>id</t>
   </si>
@@ -671,9 +671,6 @@
     <t xml:space="preserve">라이브 치고 이정도면 괜찮은데... 왜들 난리들 인지... 얼마나 떨렸는지 생각 한다면 잘한거임!!  확실히 윈터님이 안정적임. 멋져요들~ 많이 성장 하시길 </t>
   </si>
   <si>
-    <t> @개구리  중궈러가 좀 모자라긴 했는데 요즘 돌 치곤 잘하는듯ㅋㅋㅋㅋㅋ앵콜보면 상위차트 여돌앵콜보면 작살남</t>
-  </si>
-  <si>
     <t>근데 에스파 음악자체가 콘서트 음악이랑은 안어울리는거같음....특히 카리나 지젤파트는 콘서트에서 살리기 힘들지..그래서 얘네도 블핑처럼 지르면서 랩하는거같은데..음 모르겠다..애초에 코첼라를 간 것 자체가 미스였음....</t>
   </si>
   <si>
@@ -974,21 +971,12 @@
     <t>윈터 너무 잘함 카리나 너무 잘함 닝닝 조금 불안했지만 그래도 잘했음 지젤...랩포지션이라 블핑이랑 더 비교되서 까이는듯 생목은 너무했어</t>
   </si>
   <si>
-    <t>풀버전보면 닝닝이 그렇게 못하는편은 아닌것같응데 좀 경력좀 쌓고갓으먼될걸;;; 스엠은굳이 보컬그나마되는애들까지 자꾸립싱크시켜서 이렇게 큰 무대에서 라이브처음시키네 이미지만 망침고려대에서도 립싱크시켜서 이미지나락갓는데 욕먹을거 모른건 아니겠지?;;</t>
-  </si>
-  <si>
-    <t>어째 반응을 보니...인지도 면에서는 아직 이런 큰 무대 설 정도는 아닌 것 같기도 하고, 또 한편으로는 페스티발에 맞는 노래도 아닌 것 같아 호응이 없는 것 같기도 하고; 물론 정말 잘한 건 맞지만 안타까운 느낌이 더 드네;</t>
-  </si>
-  <si>
     <t>도저히 끝까지 못보고 중간에 정지시켰다 ㅋㅋㅋ 이 문제는 비단 에스파만의 문제가 아니기 때문에 뭐 어떻게든 해결을 해야할듯</t>
   </si>
   <si>
     <t>나는 이럴거 알고있었는데 2년동안 라이브한번도 안하는데 다들 라이브라고우겼지 ㅋㅋ</t>
   </si>
   <si>
-    <t>노래를 못하는 건 아닌데 배에 힘이 딸려서 그런지 호흡이 딸려서 음정이 흔들림. 초반에 블랙맘바 시작할때는 괜찮은데 끝나고서 거친 숨소리가 엄청 들리는게 체력관리가 제대로 안되어있구나 하는게 느껴지고 블랙맘바에서 새비지로 넘어갈때 다들 우물쭈물하는 게 보여서 경험 적은게 너무 티남. 다음 노래로 넘어갈수록 점점 호흡이랑 음정이 불안정해지는게 음방에서 노래 하나 부르는 정도로만 활동을 해왔다는게 느껴짐. 배에 힘이랑 호흡 오랫동안 유지하는 연습하고 체력 기르면서 노래 여러곡을 연속으로 이어서 연습하는 방향으로 진행하면 더 좋아질 것 같은데.... 그리고 노래 순서 구성도 초반에는 안무가 덜 역동적인 것을 배치하는 방향이 더 나을 듯....</t>
-  </si>
-  <si>
     <t>걍 깔께없다 전부 존나 잘한다</t>
   </si>
   <si>
@@ -1010,9 +998,6 @@
     <t>익룡 때문에 삑사리로 들린거</t>
   </si>
   <si>
-    <t>머글 눈엔 잘하는 것 같긴한데그전부터 라이브를 아예 안 해서 실력 모른다 어쩐다 하던게 쌓여서 지금 터진듯그니까 라이브를 데뷔 때부터 시켰었으면 데뷔 때부터 실력 좋다 하면서 언플 때릴 수 있었음.애초에 라이브 했으면 사람들이 믿어줬을 거 아님 그리고 라이브하면서 실력 더 쌓아서 지금 욕 안 먹을 수도 있었고. 스엠이 관리한다면서 안 시키는 건지 아닌 진 모르겠는데ㅎㅎ;;</t>
-  </si>
-  <si>
     <t>그냥 잘하는데?</t>
   </si>
   <si>
@@ -1023,12 +1008,6 @@
   </si>
   <si>
     <t>인스타나 페북에 하도 욕싸질러 놨길래 뭐 얼마나 못했길래 그러나 하고 왔는데 이 정도면 라이브 첫무대를 코첼라로 한거치고 잘했구만 방구석 프로듀서들 왜 이렇게 난리실까;</t>
-  </si>
-  <si>
-    <t>객관적으로 닝닝빼면 못한 거 아닌데? 무대 못 즐기고 페스티벌에는 허전한 노래랑 무대 구성인 게 문제같음 제일 큰 건 블핑이랑 비교 때문에ㅠ 그것만 아니었어도 이만큼 욕먹진 않았을 거 같은데</t>
-  </si>
-  <si>
-    <t>요즘이 기사로 언플 좀 하면 다 믿는 세상도 아니고 유튜브랑 SNS로 다 아는데 어쩌자고 그런 언플을 때린 건지 모르겠음.. 기왕 그럴거면 라이브 짬이나 쌓고 가던가 보는 내가 다 어색하다 최소한 노래는 밴드사운드로 편곡해서 보냈어야지;;</t>
   </si>
   <si>
     <t>솔직히 못하지 않은 것 같은데 왜 욕먹는 건가요?? 중간에 살짝 음정 불안한 거 있었던 것 같긴 한데 두 세번 정도 그것도 삑사리도 아니고 살짝 불안한 정도인것만 빼면 전반적으로 잘했다는 생각 저만 드나요..?</t>
@@ -2143,9 +2122,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -2165,12 +2144,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2178,16 +2196,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2202,18 +2220,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2226,23 +2236,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2258,36 +2267,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2300,7 +2280,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2317,7 +2296,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2329,13 +2308,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2347,25 +2368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2377,13 +2380,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2395,25 +2434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2431,7 +2452,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2443,61 +2476,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2526,17 +2505,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2566,39 +2565,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2613,32 +2579,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2647,127 +2626,127 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3123,10 +3102,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C704"/>
+  <dimension ref="A1:C697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A670" workbookViewId="0">
+      <selection activeCell="B691" sqref="B691"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
@@ -5499,12 +5478,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -5537,7 +5519,7 @@
         <v>220</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5548,7 +5530,7 @@
         <v>221</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -5570,7 +5552,7 @@
         <v>223</v>
       </c>
       <c r="C222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -5603,7 +5585,7 @@
         <v>226</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5614,7 +5596,7 @@
         <v>227</v>
       </c>
       <c r="C226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5636,7 +5618,7 @@
         <v>229</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5658,7 +5640,7 @@
         <v>231</v>
       </c>
       <c r="C230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -5669,7 +5651,7 @@
         <v>232</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -5680,7 +5662,7 @@
         <v>233</v>
       </c>
       <c r="C232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5724,7 +5706,7 @@
         <v>237</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5735,7 +5717,7 @@
         <v>238</v>
       </c>
       <c r="C237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5746,7 +5728,7 @@
         <v>239</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5757,7 +5739,7 @@
         <v>240</v>
       </c>
       <c r="C239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -5768,7 +5750,7 @@
         <v>241</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -5790,7 +5772,7 @@
         <v>243</v>
       </c>
       <c r="C242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5834,7 +5816,7 @@
         <v>247</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5845,7 +5827,7 @@
         <v>248</v>
       </c>
       <c r="C247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5856,7 +5838,7 @@
         <v>249</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5867,7 +5849,7 @@
         <v>250</v>
       </c>
       <c r="C249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5878,7 +5860,7 @@
         <v>251</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5889,7 +5871,7 @@
         <v>252</v>
       </c>
       <c r="C251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5911,7 +5893,7 @@
         <v>254</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5966,7 +5948,7 @@
         <v>259</v>
       </c>
       <c r="C258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5977,7 +5959,7 @@
         <v>260</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5999,7 +5981,7 @@
         <v>262</v>
       </c>
       <c r="C261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -6010,7 +5992,7 @@
         <v>263</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -6032,7 +6014,7 @@
         <v>265</v>
       </c>
       <c r="C264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -6043,7 +6025,7 @@
         <v>266</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -6054,7 +6036,7 @@
         <v>267</v>
       </c>
       <c r="C266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -6109,7 +6091,7 @@
         <v>272</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -6131,7 +6113,7 @@
         <v>274</v>
       </c>
       <c r="C273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -6142,7 +6124,7 @@
         <v>275</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -6164,7 +6146,7 @@
         <v>277</v>
       </c>
       <c r="C276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -6197,7 +6179,7 @@
         <v>280</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -6208,7 +6190,7 @@
         <v>281</v>
       </c>
       <c r="C280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -6219,7 +6201,7 @@
         <v>282</v>
       </c>
       <c r="C281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -6252,7 +6234,7 @@
         <v>285</v>
       </c>
       <c r="C284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -6274,7 +6256,7 @@
         <v>287</v>
       </c>
       <c r="C286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -6285,7 +6267,7 @@
         <v>288</v>
       </c>
       <c r="C287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -6307,7 +6289,7 @@
         <v>290</v>
       </c>
       <c r="C289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -6318,7 +6300,7 @@
         <v>291</v>
       </c>
       <c r="C290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -6329,7 +6311,7 @@
         <v>292</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -6340,7 +6322,7 @@
         <v>293</v>
       </c>
       <c r="C292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -6362,7 +6344,7 @@
         <v>295</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -6373,7 +6355,7 @@
         <v>296</v>
       </c>
       <c r="C295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -6384,7 +6366,7 @@
         <v>297</v>
       </c>
       <c r="C296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -6406,7 +6388,7 @@
         <v>299</v>
       </c>
       <c r="C298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -6417,7 +6399,7 @@
         <v>300</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -6439,7 +6421,7 @@
         <v>302</v>
       </c>
       <c r="C301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -6450,7 +6432,7 @@
         <v>303</v>
       </c>
       <c r="C302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -6472,7 +6454,7 @@
         <v>305</v>
       </c>
       <c r="C304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -6516,7 +6498,7 @@
         <v>309</v>
       </c>
       <c r="C308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -6527,7 +6509,7 @@
         <v>310</v>
       </c>
       <c r="C309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -6538,7 +6520,7 @@
         <v>311</v>
       </c>
       <c r="C310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -6560,7 +6542,7 @@
         <v>313</v>
       </c>
       <c r="C312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -6571,7 +6553,7 @@
         <v>314</v>
       </c>
       <c r="C313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -6582,7 +6564,7 @@
         <v>315</v>
       </c>
       <c r="C314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -6604,23 +6586,29 @@
         <v>317</v>
       </c>
       <c r="C316">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
       <c r="A317" s="1">
         <v>315</v>
       </c>
       <c r="B317" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="318" spans="1:2">
+      <c r="C317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
       <c r="A318" s="1">
         <v>316</v>
       </c>
       <c r="B318" t="s">
         <v>319</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -6631,23 +6619,29 @@
         <v>320</v>
       </c>
       <c r="C319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
       <c r="A320" s="1">
         <v>318</v>
       </c>
       <c r="B320" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="321" spans="1:2">
+      <c r="C320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
       <c r="B321" t="s">
         <v>322</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6669,7 +6663,7 @@
         <v>324</v>
       </c>
       <c r="C323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -6702,7 +6696,7 @@
         <v>327</v>
       </c>
       <c r="C326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6713,7 +6707,7 @@
         <v>328</v>
       </c>
       <c r="C327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6724,15 +6718,18 @@
         <v>329</v>
       </c>
       <c r="C328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
       <c r="A329" s="1">
         <v>327</v>
       </c>
       <c r="B329" t="s">
         <v>330</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6743,15 +6740,18 @@
         <v>331</v>
       </c>
       <c r="C330">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
       <c r="A331" s="1">
         <v>329</v>
       </c>
       <c r="B331" t="s">
         <v>332</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -6773,23 +6773,29 @@
         <v>334</v>
       </c>
       <c r="C333">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
       <c r="A334" s="1">
         <v>332</v>
       </c>
       <c r="B334" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="335" spans="1:2">
+      <c r="C334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
       <c r="A335" s="1">
         <v>333</v>
       </c>
       <c r="B335" t="s">
         <v>336</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6800,7 +6806,7 @@
         <v>337</v>
       </c>
       <c r="C336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6811,7 +6817,7 @@
         <v>338</v>
       </c>
       <c r="C337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6822,7 +6828,7 @@
         <v>339</v>
       </c>
       <c r="C338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6833,7 +6839,7 @@
         <v>340</v>
       </c>
       <c r="C339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6844,7 +6850,7 @@
         <v>341</v>
       </c>
       <c r="C340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6899,7 +6905,7 @@
         <v>346</v>
       </c>
       <c r="C345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6910,7 +6916,7 @@
         <v>347</v>
       </c>
       <c r="C346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6932,7 +6938,7 @@
         <v>349</v>
       </c>
       <c r="C348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6943,7 +6949,7 @@
         <v>350</v>
       </c>
       <c r="C349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6954,7 +6960,7 @@
         <v>351</v>
       </c>
       <c r="C350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6965,7 +6971,7 @@
         <v>352</v>
       </c>
       <c r="C351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6976,7 +6982,7 @@
         <v>353</v>
       </c>
       <c r="C352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6987,7 +6993,7 @@
         <v>354</v>
       </c>
       <c r="C353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6998,7 +7004,7 @@
         <v>355</v>
       </c>
       <c r="C354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -7020,7 +7026,7 @@
         <v>357</v>
       </c>
       <c r="C356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -7031,7 +7037,7 @@
         <v>358</v>
       </c>
       <c r="C357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -7086,7 +7092,7 @@
         <v>363</v>
       </c>
       <c r="C362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -7097,7 +7103,7 @@
         <v>364</v>
       </c>
       <c r="C363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -7108,7 +7114,7 @@
         <v>365</v>
       </c>
       <c r="C364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -7119,7 +7125,7 @@
         <v>366</v>
       </c>
       <c r="C365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -7152,7 +7158,7 @@
         <v>369</v>
       </c>
       <c r="C368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -7185,7 +7191,7 @@
         <v>372</v>
       </c>
       <c r="C371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -7196,7 +7202,7 @@
         <v>373</v>
       </c>
       <c r="C372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -7218,7 +7224,7 @@
         <v>375</v>
       </c>
       <c r="C374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -7240,7 +7246,7 @@
         <v>377</v>
       </c>
       <c r="C376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -7262,7 +7268,7 @@
         <v>379</v>
       </c>
       <c r="C378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -7295,7 +7301,7 @@
         <v>382</v>
       </c>
       <c r="C381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -7328,7 +7334,7 @@
         <v>385</v>
       </c>
       <c r="C384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -7339,7 +7345,7 @@
         <v>386</v>
       </c>
       <c r="C385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -7361,7 +7367,7 @@
         <v>388</v>
       </c>
       <c r="C387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -7372,7 +7378,7 @@
         <v>389</v>
       </c>
       <c r="C388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -7383,7 +7389,7 @@
         <v>390</v>
       </c>
       <c r="C389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -7394,7 +7400,7 @@
         <v>391</v>
       </c>
       <c r="C390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -7405,7 +7411,7 @@
         <v>392</v>
       </c>
       <c r="C391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -7438,7 +7444,7 @@
         <v>395</v>
       </c>
       <c r="C394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -7449,7 +7455,7 @@
         <v>396</v>
       </c>
       <c r="C395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7460,7 +7466,7 @@
         <v>397</v>
       </c>
       <c r="C396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -7504,7 +7510,7 @@
         <v>401</v>
       </c>
       <c r="C400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -7559,7 +7565,7 @@
         <v>406</v>
       </c>
       <c r="C405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7581,7 +7587,7 @@
         <v>408</v>
       </c>
       <c r="C407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -7614,7 +7620,7 @@
         <v>411</v>
       </c>
       <c r="C410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -7691,7 +7697,7 @@
         <v>418</v>
       </c>
       <c r="C417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7713,7 +7719,7 @@
         <v>420</v>
       </c>
       <c r="C419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -7724,7 +7730,7 @@
         <v>421</v>
       </c>
       <c r="C420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7746,7 +7752,7 @@
         <v>423</v>
       </c>
       <c r="C422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -7790,7 +7796,7 @@
         <v>427</v>
       </c>
       <c r="C426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -7801,7 +7807,7 @@
         <v>428</v>
       </c>
       <c r="C427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -7823,7 +7829,7 @@
         <v>430</v>
       </c>
       <c r="C429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7922,7 +7928,7 @@
         <v>439</v>
       </c>
       <c r="C438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7933,7 +7939,7 @@
         <v>440</v>
       </c>
       <c r="C439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7944,7 +7950,7 @@
         <v>441</v>
       </c>
       <c r="C440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7977,7 +7983,7 @@
         <v>444</v>
       </c>
       <c r="C443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -8021,7 +8027,7 @@
         <v>448</v>
       </c>
       <c r="C447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -8032,7 +8038,7 @@
         <v>449</v>
       </c>
       <c r="C448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -8087,7 +8093,7 @@
         <v>454</v>
       </c>
       <c r="C453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -8109,7 +8115,7 @@
         <v>456</v>
       </c>
       <c r="C455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -8131,7 +8137,7 @@
         <v>458</v>
       </c>
       <c r="C457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -8230,7 +8236,7 @@
         <v>467</v>
       </c>
       <c r="C466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -8307,7 +8313,7 @@
         <v>474</v>
       </c>
       <c r="C473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -8318,7 +8324,7 @@
         <v>475</v>
       </c>
       <c r="C474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -8362,7 +8368,7 @@
         <v>479</v>
       </c>
       <c r="C478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -8395,7 +8401,7 @@
         <v>482</v>
       </c>
       <c r="C481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -8439,7 +8445,7 @@
         <v>486</v>
       </c>
       <c r="C485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -8450,7 +8456,7 @@
         <v>487</v>
       </c>
       <c r="C486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -8527,7 +8533,7 @@
         <v>494</v>
       </c>
       <c r="C493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -8648,7 +8654,7 @@
         <v>505</v>
       </c>
       <c r="C504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -8670,7 +8676,7 @@
         <v>507</v>
       </c>
       <c r="C506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -8681,7 +8687,7 @@
         <v>508</v>
       </c>
       <c r="C507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -8714,7 +8720,7 @@
         <v>511</v>
       </c>
       <c r="C510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -8747,7 +8753,7 @@
         <v>514</v>
       </c>
       <c r="C513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -8758,7 +8764,7 @@
         <v>515</v>
       </c>
       <c r="C514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -8791,7 +8797,7 @@
         <v>518</v>
       </c>
       <c r="C517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -8802,7 +8808,7 @@
         <v>519</v>
       </c>
       <c r="C518">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -9374,7 +9380,7 @@
         <v>571</v>
       </c>
       <c r="C570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -9451,7 +9457,7 @@
         <v>578</v>
       </c>
       <c r="C577">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -9462,7 +9468,7 @@
         <v>579</v>
       </c>
       <c r="C578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -9495,7 +9501,7 @@
         <v>582</v>
       </c>
       <c r="C581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -9517,7 +9523,7 @@
         <v>584</v>
       </c>
       <c r="C583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -9539,7 +9545,7 @@
         <v>586</v>
       </c>
       <c r="C585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -9572,7 +9578,7 @@
         <v>589</v>
       </c>
       <c r="C588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -9594,7 +9600,7 @@
         <v>591</v>
       </c>
       <c r="C590">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -9682,7 +9688,7 @@
         <v>599</v>
       </c>
       <c r="C598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -9704,7 +9710,7 @@
         <v>601</v>
       </c>
       <c r="C600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -9715,7 +9721,7 @@
         <v>602</v>
       </c>
       <c r="C601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -9737,7 +9743,7 @@
         <v>604</v>
       </c>
       <c r="C603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -9759,7 +9765,7 @@
         <v>606</v>
       </c>
       <c r="C605">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -9770,7 +9776,7 @@
         <v>607</v>
       </c>
       <c r="C606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -9792,7 +9798,7 @@
         <v>609</v>
       </c>
       <c r="C608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -9814,7 +9820,7 @@
         <v>611</v>
       </c>
       <c r="C610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -9847,7 +9853,7 @@
         <v>614</v>
       </c>
       <c r="C613">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -9858,7 +9864,7 @@
         <v>615</v>
       </c>
       <c r="C614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -9946,7 +9952,7 @@
         <v>623</v>
       </c>
       <c r="C622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -9990,7 +9996,7 @@
         <v>627</v>
       </c>
       <c r="C626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -10023,7 +10029,7 @@
         <v>630</v>
       </c>
       <c r="C629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -10056,7 +10062,7 @@
         <v>633</v>
       </c>
       <c r="C632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -10067,7 +10073,7 @@
         <v>634</v>
       </c>
       <c r="C633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -10133,7 +10139,7 @@
         <v>640</v>
       </c>
       <c r="C639">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -10221,7 +10227,7 @@
         <v>648</v>
       </c>
       <c r="C647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -10287,7 +10293,7 @@
         <v>654</v>
       </c>
       <c r="C653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -10298,7 +10304,7 @@
         <v>655</v>
       </c>
       <c r="C654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -10331,7 +10337,7 @@
         <v>658</v>
       </c>
       <c r="C657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -10397,7 +10403,7 @@
         <v>664</v>
       </c>
       <c r="C663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -10408,7 +10414,7 @@
         <v>665</v>
       </c>
       <c r="C664">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -10441,7 +10447,7 @@
         <v>668</v>
       </c>
       <c r="C667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -10474,7 +10480,7 @@
         <v>671</v>
       </c>
       <c r="C670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -10661,7 +10667,7 @@
         <v>688</v>
       </c>
       <c r="C687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -10683,7 +10689,7 @@
         <v>690</v>
       </c>
       <c r="C689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -10705,7 +10711,7 @@
         <v>692</v>
       </c>
       <c r="C691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -10716,7 +10722,7 @@
         <v>693</v>
       </c>
       <c r="C692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -10760,7 +10766,7 @@
         <v>697</v>
       </c>
       <c r="C696">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -10771,88 +10777,14 @@
         <v>698</v>
       </c>
       <c r="C697">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="698" spans="1:3">
-      <c r="A698" s="1">
-        <v>696</v>
-      </c>
-      <c r="B698" t="s">
-        <v>699</v>
-      </c>
-      <c r="C698">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="699" spans="1:3">
-      <c r="A699" s="1">
-        <v>697</v>
-      </c>
-      <c r="B699" t="s">
-        <v>700</v>
-      </c>
-      <c r="C699">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="700" spans="1:3">
-      <c r="A700" s="1">
-        <v>698</v>
-      </c>
-      <c r="B700" t="s">
-        <v>701</v>
-      </c>
-      <c r="C700">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="701" spans="1:3">
-      <c r="A701" s="1">
-        <v>699</v>
-      </c>
-      <c r="B701" t="s">
-        <v>702</v>
-      </c>
-      <c r="C701">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="702" spans="1:3">
-      <c r="A702" s="1">
-        <v>700</v>
-      </c>
-      <c r="B702" t="s">
-        <v>703</v>
-      </c>
-      <c r="C702">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="703" spans="1:3">
-      <c r="A703" s="1">
-        <v>701</v>
-      </c>
-      <c r="B703" t="s">
-        <v>704</v>
-      </c>
-      <c r="C703">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="704" spans="1:3">
-      <c r="A704" s="1">
-        <v>702</v>
-      </c>
-      <c r="B704" t="s">
-        <v>705</v>
-      </c>
-      <c r="C704">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C704">
+  <autoFilter ref="A1:C697">
+    <sortState ref="A2:C697">
+      <sortCondition ref="A1"/>
+    </sortState>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
